--- a/REGULAR/RE-ENCODE/REPILLO AMMY LOU.xlsx
+++ b/REGULAR/RE-ENCODE/REPILLO AMMY LOU.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62C0A8E-AFFB-48E0-B69E-0140357FBD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="108">
   <si>
     <t>PERIOD</t>
   </si>
@@ -354,12 +355,15 @@
   </si>
   <si>
     <t>4/11,12/2023</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1045,25 +1049,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1370,34 +1374,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A87" activePane="bottomLeft"/>
+      <pane ySplit="3696" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="I100" sqref="I100"/>
+      <selection pane="bottomLeft" activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1418,7 +1422,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1440,7 +1444,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1462,7 +1466,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1470,7 +1474,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1483,7 +1487,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1500,7 +1504,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1535,7 +1539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1559,7 +1563,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="40"/>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -1579,7 +1583,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
         <v>46</v>
       </c>
@@ -1597,7 +1601,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43101</v>
       </c>
@@ -1623,7 +1627,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43132</v>
       </c>
@@ -1647,7 +1651,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>47</v>
@@ -1669,7 +1673,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43160</v>
       </c>
@@ -1689,7 +1693,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43191</v>
       </c>
@@ -1715,7 +1719,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>53</v>
@@ -1737,7 +1741,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>47</v>
@@ -1759,7 +1763,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43221</v>
       </c>
@@ -1783,7 +1787,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>47</v>
@@ -1807,7 +1811,7 @@
         <v>43440</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43252</v>
       </c>
@@ -1827,7 +1831,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43282</v>
       </c>
@@ -1847,7 +1851,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43313</v>
       </c>
@@ -1873,7 +1877,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>47</v>
@@ -1895,7 +1899,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43344</v>
       </c>
@@ -1921,7 +1925,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43374</v>
       </c>
@@ -1947,7 +1951,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>47</v>
@@ -1969,7 +1973,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>64</v>
@@ -1989,7 +1993,7 @@
         <v>43354</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43405</v>
       </c>
@@ -2009,7 +2013,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43435</v>
       </c>
@@ -2035,7 +2039,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>65</v>
@@ -2055,7 +2059,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="48" t="s">
         <v>67</v>
       </c>
@@ -2073,7 +2077,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43466</v>
       </c>
@@ -2099,7 +2103,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43497</v>
       </c>
@@ -2123,7 +2127,7 @@
         <v>43771</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>70</v>
@@ -2143,7 +2147,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>52</v>
@@ -2165,7 +2169,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43525</v>
       </c>
@@ -2189,7 +2193,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>73</v>
@@ -2211,7 +2215,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>74</v>
@@ -2235,7 +2239,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43556</v>
       </c>
@@ -2259,7 +2263,7 @@
         <v>43559</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>47</v>
@@ -2283,7 +2287,7 @@
         <v>43681</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43586</v>
       </c>
@@ -2309,7 +2313,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43617</v>
       </c>
@@ -2329,7 +2333,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43647</v>
       </c>
@@ -2353,7 +2357,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>74</v>
@@ -2377,7 +2381,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>43678</v>
       </c>
@@ -2397,7 +2401,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>43709</v>
       </c>
@@ -2423,7 +2427,7 @@
         <v>43625</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>47</v>
@@ -2447,7 +2451,7 @@
         <v>43565</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>43739</v>
       </c>
@@ -2467,7 +2471,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>43770</v>
       </c>
@@ -2491,7 +2495,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>43800</v>
       </c>
@@ -2511,7 +2515,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="48" t="s">
         <v>83</v>
       </c>
@@ -2529,7 +2533,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>43831</v>
       </c>
@@ -2549,7 +2553,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>43862</v>
       </c>
@@ -2575,7 +2579,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>43891</v>
       </c>
@@ -2595,7 +2599,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>43922</v>
       </c>
@@ -2615,7 +2619,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>43952</v>
       </c>
@@ -2635,7 +2639,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>43983</v>
       </c>
@@ -2655,7 +2659,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44013</v>
       </c>
@@ -2681,7 +2685,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44044</v>
       </c>
@@ -2705,7 +2709,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>49</v>
@@ -2727,7 +2731,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44075</v>
       </c>
@@ -2747,7 +2751,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44105</v>
       </c>
@@ -2767,7 +2771,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44136</v>
       </c>
@@ -2787,7 +2791,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44166</v>
       </c>
@@ -2807,7 +2811,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="48" t="s">
         <v>88</v>
       </c>
@@ -2825,7 +2829,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44197</v>
       </c>
@@ -2845,7 +2849,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44228</v>
       </c>
@@ -2865,7 +2869,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44256</v>
       </c>
@@ -2885,7 +2889,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44287</v>
       </c>
@@ -2905,7 +2909,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44317</v>
       </c>
@@ -2925,7 +2929,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44378</v>
       </c>
@@ -2945,7 +2949,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44409</v>
       </c>
@@ -2969,7 +2973,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44440</v>
       </c>
@@ -2989,7 +2993,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44470</v>
       </c>
@@ -3015,7 +3019,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44501</v>
       </c>
@@ -3035,7 +3039,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44531</v>
       </c>
@@ -3059,7 +3063,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="48" t="s">
         <v>92</v>
       </c>
@@ -3077,7 +3081,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44562</v>
       </c>
@@ -3097,7 +3101,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44593</v>
       </c>
@@ -3115,7 +3119,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>44621</v>
       </c>
@@ -3137,7 +3141,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>49</v>
@@ -3161,7 +3165,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>44652</v>
       </c>
@@ -3181,7 +3185,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>44682</v>
       </c>
@@ -3201,7 +3205,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>44713</v>
       </c>
@@ -3227,7 +3231,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>44743</v>
       </c>
@@ -3253,7 +3257,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>44774</v>
       </c>
@@ -3279,7 +3283,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>44805</v>
       </c>
@@ -3305,7 +3309,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>44835</v>
       </c>
@@ -3331,7 +3335,7 @@
         <v>44861</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>47</v>
@@ -3353,7 +3357,7 @@
         <v>44841</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>44866</v>
       </c>
@@ -3373,7 +3377,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>44896</v>
       </c>
@@ -3393,7 +3397,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="48" t="s">
         <v>99</v>
       </c>
@@ -3411,7 +3415,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>44927</v>
       </c>
@@ -3437,7 +3441,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>44958</v>
       </c>
@@ -3463,7 +3467,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>44986</v>
       </c>
@@ -3487,7 +3491,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>102</v>
@@ -3507,7 +3511,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>102</v>
@@ -3527,7 +3531,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>100</v>
@@ -3549,7 +3553,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>45017</v>
       </c>
@@ -3567,7 +3571,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>45047</v>
       </c>
@@ -3585,7 +3589,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>45078</v>
       </c>
@@ -3603,7 +3607,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>45108</v>
       </c>
@@ -3621,7 +3625,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>45139</v>
       </c>
@@ -3639,7 +3643,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>45170</v>
       </c>
@@ -3657,7 +3661,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>45200</v>
       </c>
@@ -3675,7 +3679,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>45231</v>
       </c>
@@ -3693,7 +3697,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>45261</v>
       </c>
@@ -3711,7 +3715,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>45292</v>
       </c>
@@ -3729,7 +3733,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>45323</v>
       </c>
@@ -3747,7 +3751,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3763,7 +3767,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3779,7 +3783,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3795,7 +3799,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3811,7 +3815,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3827,7 +3831,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3843,7 +3847,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3859,7 +3863,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3875,7 +3879,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3891,7 +3895,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3907,7 +3911,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3923,7 +3927,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3939,7 +3943,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3955,7 +3959,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3971,7 +3975,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3987,7 +3991,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -4003,7 +4007,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4019,7 +4023,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -4035,7 +4039,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -4051,7 +4055,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -4067,7 +4071,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -4083,7 +4087,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -4099,7 +4103,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -4115,7 +4119,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -4131,7 +4135,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="41"/>
       <c r="B135" s="15"/>
       <c r="C135" s="42"/>
@@ -4162,10 +4166,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4188,28 +4192,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -4222,7 +4226,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4251,7 +4255,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>17.5</v>
       </c>
@@ -4275,17 +4279,20 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4306,7 +4313,11 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>121</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4333,7 +4344,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4359,7 +4370,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4385,7 +4396,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4411,7 +4422,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4437,7 +4448,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4463,7 +4474,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4489,7 +4500,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4515,7 +4526,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4535,7 +4546,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4555,7 +4566,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4575,7 +4586,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4596,7 +4607,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4617,7 +4628,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4638,7 +4649,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4659,7 +4670,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4680,7 +4691,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4701,7 +4712,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4722,7 +4733,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4743,7 +4754,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4764,7 +4775,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4785,7 +4796,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4806,7 +4817,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4827,7 +4838,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4848,7 +4859,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4869,7 +4880,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4890,7 +4901,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4911,7 +4922,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4932,7 +4943,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4953,7 +4964,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4974,7 +4985,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4995,7 +5006,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -5004,7 +5015,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -5013,7 +5024,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -5022,7 +5033,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -5031,7 +5042,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -5040,7 +5051,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -5049,7 +5060,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -5058,7 +5069,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -5067,7 +5078,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -5076,7 +5087,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -5085,7 +5096,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -5094,7 +5105,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -5103,7 +5114,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -5112,7 +5123,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -5121,7 +5132,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -5130,7 +5141,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -5139,7 +5150,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -5148,7 +5159,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -5157,7 +5168,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -5166,7 +5177,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -5175,7 +5186,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -5184,7 +5195,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5193,7 +5204,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5202,7 +5213,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5211,7 +5222,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5220,7 +5231,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5229,7 +5240,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5238,7 +5249,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5247,7 +5258,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5256,7 +5267,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/RE-ENCODE/REPILLO AMMY LOU.xlsx
+++ b/REGULAR/RE-ENCODE/REPILLO AMMY LOU.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62C0A8E-AFFB-48E0-B69E-0140357FBD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
   <si>
     <t>PERIOD</t>
   </si>
@@ -162,9 +161,6 @@
     <t>SL EARNED</t>
   </si>
   <si>
-    <t>REPILLO AMMY LOU</t>
-  </si>
-  <si>
     <t>ADMIN</t>
   </si>
   <si>
@@ -358,12 +354,21 @@
   </si>
   <si>
     <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>REPILLO, AMMY LOU</t>
+  </si>
+  <si>
+    <t>FL(2-0-0)</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1049,25 +1054,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1374,39 +1379,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="F93" sqref="F93"/>
+      <pane ySplit="3690" topLeftCell="A88" activePane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="K102" sqref="K102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
@@ -1422,12 +1427,12 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
@@ -1444,19 +1449,19 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
@@ -1466,7 +1471,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1474,7 +1479,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1487,7 +1492,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1504,7 +1509,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1539,7 +1544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1548,7 +1553,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>62</v>
+        <v>61.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1558,12 +1563,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>59</v>
+        <v>58.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -1583,9 +1588,9 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="13"/>
@@ -1601,12 +1606,12 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43101</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="13">
         <v>1.25</v>
@@ -1624,15 +1629,15 @@
       <c r="I12" s="9"/>
       <c r="J12" s="11"/>
       <c r="K12" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43132</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="13">
         <v>1.25</v>
@@ -1648,13 +1653,13 @@
       <c r="I13" s="9"/>
       <c r="J13" s="11"/>
       <c r="K13" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="39"/>
@@ -1670,10 +1675,10 @@
       <c r="I14" s="9"/>
       <c r="J14" s="11"/>
       <c r="K14" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43160</v>
       </c>
@@ -1693,12 +1698,12 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43191</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="42">
         <v>1.25</v>
@@ -1716,13 +1721,13 @@
       <c r="I16" s="9"/>
       <c r="J16" s="12"/>
       <c r="K16" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="39">
@@ -1738,13 +1743,13 @@
       <c r="I17" s="9"/>
       <c r="J17" s="11"/>
       <c r="K17" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="39"/>
@@ -1760,15 +1765,15 @@
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
       <c r="K18" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43221</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="39"/>
@@ -1784,13 +1789,13 @@
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
       <c r="K19" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="13">
         <v>1.25</v>
@@ -1811,7 +1816,7 @@
         <v>43440</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43252</v>
       </c>
@@ -1831,7 +1836,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43282</v>
       </c>
@@ -1851,12 +1856,12 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43313</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="13">
         <v>1.25</v>
@@ -1874,13 +1879,13 @@
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
       <c r="K23" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="39"/>
@@ -1896,15 +1901,15 @@
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
       <c r="K24" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43344</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="13">
         <v>1.25</v>
@@ -1922,15 +1927,15 @@
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
       <c r="K25" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43374</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="13">
         <v>1.25</v>
@@ -1948,13 +1953,13 @@
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
       <c r="K26" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="39"/>
@@ -1970,13 +1975,13 @@
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
       <c r="K27" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="39"/>
@@ -1993,7 +1998,7 @@
         <v>43354</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43405</v>
       </c>
@@ -2013,12 +2018,12 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43435</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="13">
         <v>1.25</v>
@@ -2036,13 +2041,13 @@
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
       <c r="K30" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="39">
@@ -2059,9 +2064,9 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -2077,12 +2082,12 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43466</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" s="13">
         <v>1.25</v>
@@ -2100,15 +2105,15 @@
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
       <c r="K33" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43497</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" s="13">
         <v>1.25</v>
@@ -2127,10 +2132,10 @@
         <v>43771</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="39"/>
@@ -2144,13 +2149,13 @@
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
       <c r="K35" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="39">
@@ -2166,15 +2171,15 @@
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
       <c r="K36" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43525</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="39"/>
@@ -2190,13 +2195,13 @@
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
       <c r="K37" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="39"/>
@@ -2212,13 +2217,13 @@
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
       <c r="K38" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C39" s="13">
         <v>1.25</v>
@@ -2236,15 +2241,15 @@
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
       <c r="K39" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43556</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="39"/>
@@ -2263,10 +2268,10 @@
         <v>43559</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" s="13">
         <v>1.25</v>
@@ -2287,12 +2292,12 @@
         <v>43681</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43586</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="13">
         <v>1.25</v>
@@ -2310,10 +2315,10 @@
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
       <c r="K42" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43617</v>
       </c>
@@ -2333,12 +2338,12 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43647</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="39">
@@ -2354,13 +2359,13 @@
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
       <c r="K44" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C45" s="13">
         <v>1.25</v>
@@ -2378,10 +2383,10 @@
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
       <c r="K45" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>43678</v>
       </c>
@@ -2401,12 +2406,12 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43709</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C47" s="13">
         <v>1.25</v>
@@ -2427,10 +2432,10 @@
         <v>43625</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" s="13">
         <v>1.25</v>
@@ -2451,7 +2456,7 @@
         <v>43565</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>43739</v>
       </c>
@@ -2471,12 +2476,12 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>43770</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C50" s="13">
         <v>1.25</v>
@@ -2492,10 +2497,10 @@
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
       <c r="K50" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>43800</v>
       </c>
@@ -2515,9 +2520,9 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -2533,7 +2538,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>43831</v>
       </c>
@@ -2553,12 +2558,12 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>43862</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C54" s="13">
         <v>1.25</v>
@@ -2576,10 +2581,10 @@
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
       <c r="K54" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>43891</v>
       </c>
@@ -2599,7 +2604,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>43922</v>
       </c>
@@ -2619,7 +2624,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>43952</v>
       </c>
@@ -2639,7 +2644,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>43983</v>
       </c>
@@ -2659,12 +2664,12 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44013</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C59" s="13">
         <v>1.25</v>
@@ -2682,15 +2687,15 @@
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
       <c r="K59" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44044</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="39"/>
@@ -2706,13 +2711,13 @@
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
       <c r="K60" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C61" s="13">
         <v>1.25</v>
@@ -2731,7 +2736,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44075</v>
       </c>
@@ -2751,7 +2756,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44105</v>
       </c>
@@ -2771,7 +2776,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44136</v>
       </c>
@@ -2791,7 +2796,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44166</v>
       </c>
@@ -2811,9 +2816,9 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -2829,7 +2834,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44197</v>
       </c>
@@ -2849,7 +2854,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44228</v>
       </c>
@@ -2869,7 +2874,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44256</v>
       </c>
@@ -2889,7 +2894,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44287</v>
       </c>
@@ -2909,7 +2914,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44317</v>
       </c>
@@ -2929,7 +2934,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44378</v>
       </c>
@@ -2949,12 +2954,12 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44409</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C73" s="13">
         <v>1.25</v>
@@ -2970,10 +2975,10 @@
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
       <c r="K73" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44440</v>
       </c>
@@ -2993,12 +2998,12 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44470</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C75" s="13">
         <v>1.25</v>
@@ -3016,10 +3021,10 @@
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
       <c r="K75" s="20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44501</v>
       </c>
@@ -3039,12 +3044,12 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44531</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C77" s="13">
         <v>1.25</v>
@@ -3063,9 +3068,9 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -3081,7 +3086,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44562</v>
       </c>
@@ -3101,7 +3106,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44593</v>
       </c>
@@ -3119,12 +3124,12 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44621</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -3138,13 +3143,13 @@
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
       <c r="K81" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C82" s="13">
         <v>1.25</v>
@@ -3162,10 +3167,10 @@
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>44652</v>
       </c>
@@ -3185,7 +3190,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44682</v>
       </c>
@@ -3205,12 +3210,12 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>44713</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C85" s="13">
         <v>1.25</v>
@@ -3228,15 +3233,15 @@
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
       <c r="K85" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>44743</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C86" s="13">
         <v>1.25</v>
@@ -3254,15 +3259,15 @@
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
       <c r="K86" s="20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>44774</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C87" s="13">
         <v>1.25</v>
@@ -3280,15 +3285,15 @@
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
       <c r="K87" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>44805</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C88" s="13">
         <v>1.25</v>
@@ -3309,12 +3314,12 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>44835</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C89" s="13">
         <v>1.25</v>
@@ -3335,10 +3340,10 @@
         <v>44861</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -3357,7 +3362,7 @@
         <v>44841</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>44866</v>
       </c>
@@ -3377,15 +3382,19 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>44896</v>
       </c>
-      <c r="B92" s="20"/>
+      <c r="B92" s="20" t="s">
+        <v>108</v>
+      </c>
       <c r="C92" s="13">
         <v>1.25</v>
       </c>
-      <c r="D92" s="39"/>
+      <c r="D92" s="39">
+        <v>2</v>
+      </c>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
       <c r="G92" s="13">
@@ -3397,9 +3406,9 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3415,12 +3424,12 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>44927</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C94" s="13">
         <v>1.25</v>
@@ -3441,12 +3450,12 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>44958</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C95" s="13">
         <v>1.25</v>
@@ -3464,15 +3473,15 @@
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
       <c r="K95" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>44986</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C96" s="13">
         <v>1.25</v>
@@ -3488,13 +3497,13 @@
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
       <c r="K96" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -3508,13 +3517,13 @@
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
       <c r="K97" s="20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -3528,13 +3537,13 @@
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
       <c r="K98" s="20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C99" s="13"/>
       <c r="D99" s="39">
@@ -3550,32 +3559,42 @@
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
       <c r="K99" s="20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>45017</v>
       </c>
-      <c r="B100" s="20"/>
-      <c r="C100" s="13"/>
+      <c r="B100" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C100" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D100" s="39"/>
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
-      <c r="G100" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H100" s="39"/>
+      <c r="G100" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H100" s="39">
+        <v>1</v>
+      </c>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="20"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K100" s="49">
+        <v>45042</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>45047</v>
       </c>
-      <c r="B101" s="20"/>
+      <c r="B101" s="20" t="s">
+        <v>109</v>
+      </c>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
       <c r="E101" s="9"/>
@@ -3584,12 +3603,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H101" s="39"/>
+      <c r="H101" s="39">
+        <v>1</v>
+      </c>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
-      <c r="K101" s="20"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K101" s="49">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>45078</v>
       </c>
@@ -3607,7 +3630,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>45108</v>
       </c>
@@ -3625,7 +3648,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>45139</v>
       </c>
@@ -3643,7 +3666,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>45170</v>
       </c>
@@ -3661,7 +3684,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>45200</v>
       </c>
@@ -3679,7 +3702,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>45231</v>
       </c>
@@ -3697,7 +3720,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>45261</v>
       </c>
@@ -3715,7 +3738,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>45292</v>
       </c>
@@ -3733,7 +3756,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>45323</v>
       </c>
@@ -3751,7 +3774,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3767,7 +3790,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3783,7 +3806,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3799,7 +3822,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3815,7 +3838,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3831,7 +3854,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3847,7 +3870,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3863,7 +3886,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3879,7 +3902,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3895,7 +3918,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3911,7 +3934,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3927,7 +3950,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3943,7 +3966,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3959,7 +3982,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3975,7 +3998,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3991,7 +4014,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -4007,7 +4030,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4023,7 +4046,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -4039,7 +4062,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -4055,7 +4078,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -4071,7 +4094,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -4087,7 +4110,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -4103,7 +4126,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -4119,7 +4142,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -4135,7 +4158,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="41"/>
       <c r="B135" s="15"/>
       <c r="C135" s="42"/>
@@ -4166,10 +4189,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4192,28 +4215,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -4226,7 +4249,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4255,7 +4278,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>17.5</v>
       </c>
@@ -4279,19 +4302,19 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
@@ -4313,10 +4336,10 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>121</v>
+        <v>119.5</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -4344,7 +4367,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4370,7 +4393,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4396,7 +4419,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4422,7 +4445,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4448,7 +4471,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4474,7 +4497,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4500,7 +4523,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4526,7 +4549,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4546,7 +4569,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4566,7 +4589,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4586,7 +4609,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4607,7 +4630,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4628,7 +4651,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4649,7 +4672,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4670,7 +4693,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4691,7 +4714,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4712,7 +4735,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4733,7 +4756,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4754,7 +4777,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4775,7 +4798,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4796,7 +4819,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4817,7 +4840,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4838,7 +4861,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4859,7 +4882,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4880,7 +4903,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4901,7 +4924,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4922,7 +4945,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4943,7 +4966,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4964,7 +4987,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4985,7 +5008,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -5006,7 +5029,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -5015,7 +5038,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -5024,7 +5047,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -5033,7 +5056,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -5042,7 +5065,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -5051,7 +5074,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -5060,7 +5083,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -5069,7 +5092,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -5078,7 +5101,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -5087,7 +5110,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -5096,7 +5119,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -5105,7 +5128,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -5114,7 +5137,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -5123,7 +5146,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -5132,7 +5155,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -5141,7 +5164,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -5150,7 +5173,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -5159,7 +5182,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -5168,7 +5191,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -5177,7 +5200,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -5186,7 +5209,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -5195,7 +5218,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5204,7 +5227,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5213,7 +5236,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5222,7 +5245,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5231,7 +5254,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5240,7 +5263,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5249,7 +5272,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5258,7 +5281,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5267,7 +5290,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/RE-ENCODE/REPILLO AMMY LOU.xlsx
+++ b/REGULAR/RE-ENCODE/REPILLO AMMY LOU.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="112">
   <si>
     <t>PERIOD</t>
   </si>
@@ -363,6 +363,12 @@
   </si>
   <si>
     <t>SL(1-0-0)</t>
+  </si>
+  <si>
+    <t>VL(4-0-0)</t>
+  </si>
+  <si>
+    <t>5/29-6/1/2023</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1060,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1383,12 +1389,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K135"/>
+  <dimension ref="A2:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A88" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K102" sqref="K102"/>
+      <selection pane="bottomLeft" activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1553,7 +1559,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>61.25</v>
+        <v>57.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1563,7 +1569,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>58.25</v>
+        <v>57.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3613,10 +3619,10 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B102" s="20"/>
+      <c r="A102" s="40"/>
+      <c r="B102" s="20" t="s">
+        <v>109</v>
+      </c>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
       <c r="E102" s="9"/>
@@ -3625,18 +3631,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H102" s="39"/>
+      <c r="H102" s="39">
+        <v>1</v>
+      </c>
       <c r="I102" s="9"/>
       <c r="J102" s="11"/>
-      <c r="K102" s="20"/>
+      <c r="K102" s="49">
+        <v>45061</v>
+      </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B103" s="20"/>
+      <c r="A103" s="40"/>
+      <c r="B103" s="20" t="s">
+        <v>110</v>
+      </c>
       <c r="C103" s="13"/>
-      <c r="D103" s="39"/>
+      <c r="D103" s="39">
+        <v>4</v>
+      </c>
       <c r="E103" s="9"/>
       <c r="F103" s="20"/>
       <c r="G103" s="13" t="str">
@@ -3646,11 +3658,13 @@
       <c r="H103" s="39"/>
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
-      <c r="K103" s="20"/>
+      <c r="K103" s="49" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3668,7 +3682,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3686,7 +3700,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3704,7 +3718,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3722,7 +3736,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3740,7 +3754,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3758,7 +3772,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3775,7 +3789,9 @@
       <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="40"/>
+      <c r="A111" s="40">
+        <v>45292</v>
+      </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
@@ -3791,7 +3807,9 @@
       <c r="K111" s="20"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="40"/>
+      <c r="A112" s="40">
+        <v>45323</v>
+      </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
@@ -4159,20 +4177,52 @@
       <c r="K134" s="20"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="41"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="42"/>
-      <c r="D135" s="43"/>
+      <c r="A135" s="40"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H135" s="43"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="39"/>
       <c r="I135" s="9"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="15"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="40"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="39"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="39"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="20"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="41"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="42"/>
+      <c r="D137" s="43"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="43"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4339,7 +4389,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>119.5</v>
+        <v>114.5</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/RE-ENCODE/REPILLO AMMY LOU.xlsx
+++ b/REGULAR/RE-ENCODE/REPILLO AMMY LOU.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C43B669-5F31-4A93-A6C8-879C40B5938B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="113">
   <si>
     <t>PERIOD</t>
   </si>
@@ -369,12 +370,15 @@
   </si>
   <si>
     <t>5/29-6/1/2023</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1043,7 +1047,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1060,25 +1064,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1385,34 +1389,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A88" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A94" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="E104" sqref="E104"/>
+      <selection pane="bottomLeft" activeCell="B96" sqref="B96:B98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1433,7 +1437,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1455,7 +1459,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1477,7 +1481,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1485,7 +1489,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1498,7 +1502,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1515,7 +1519,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1550,7 +1554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1559,7 +1563,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>57.25</v>
+        <v>58.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1569,12 +1573,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>57.25</v>
+        <v>59.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="40"/>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -1594,7 +1598,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
         <v>45</v>
       </c>
@@ -1612,7 +1616,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43101</v>
       </c>
@@ -1638,7 +1642,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43132</v>
       </c>
@@ -1662,7 +1666,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>46</v>
@@ -1684,7 +1688,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43160</v>
       </c>
@@ -1704,7 +1708,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43191</v>
       </c>
@@ -1730,7 +1734,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>52</v>
@@ -1752,7 +1756,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>46</v>
@@ -1774,7 +1778,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43221</v>
       </c>
@@ -1798,7 +1802,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>46</v>
@@ -1822,7 +1826,7 @@
         <v>43440</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43252</v>
       </c>
@@ -1842,7 +1846,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43282</v>
       </c>
@@ -1862,7 +1866,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43313</v>
       </c>
@@ -1888,7 +1892,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>46</v>
@@ -1910,7 +1914,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43344</v>
       </c>
@@ -1936,7 +1940,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43374</v>
       </c>
@@ -1962,7 +1966,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>46</v>
@@ -1984,7 +1988,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>63</v>
@@ -2004,7 +2008,7 @@
         <v>43354</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43405</v>
       </c>
@@ -2024,7 +2028,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43435</v>
       </c>
@@ -2050,7 +2054,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>64</v>
@@ -2070,7 +2074,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="48" t="s">
         <v>66</v>
       </c>
@@ -2088,7 +2092,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43466</v>
       </c>
@@ -2114,7 +2118,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43497</v>
       </c>
@@ -2138,7 +2142,7 @@
         <v>43771</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>69</v>
@@ -2158,7 +2162,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>51</v>
@@ -2180,7 +2184,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43525</v>
       </c>
@@ -2204,7 +2208,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>72</v>
@@ -2226,7 +2230,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>73</v>
@@ -2250,7 +2254,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43556</v>
       </c>
@@ -2274,7 +2278,7 @@
         <v>43559</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>46</v>
@@ -2298,7 +2302,7 @@
         <v>43681</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43586</v>
       </c>
@@ -2324,7 +2328,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43617</v>
       </c>
@@ -2344,7 +2348,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43647</v>
       </c>
@@ -2368,7 +2372,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>73</v>
@@ -2392,7 +2396,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>43678</v>
       </c>
@@ -2412,7 +2416,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>43709</v>
       </c>
@@ -2438,7 +2442,7 @@
         <v>43625</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>46</v>
@@ -2462,7 +2466,7 @@
         <v>43565</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>43739</v>
       </c>
@@ -2482,7 +2486,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>43770</v>
       </c>
@@ -2506,7 +2510,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>43800</v>
       </c>
@@ -2526,7 +2530,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="48" t="s">
         <v>82</v>
       </c>
@@ -2544,7 +2548,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>43831</v>
       </c>
@@ -2564,7 +2568,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>43862</v>
       </c>
@@ -2590,7 +2594,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>43891</v>
       </c>
@@ -2610,7 +2614,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>43922</v>
       </c>
@@ -2630,7 +2634,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>43952</v>
       </c>
@@ -2650,7 +2654,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>43983</v>
       </c>
@@ -2670,7 +2674,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44013</v>
       </c>
@@ -2696,7 +2700,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44044</v>
       </c>
@@ -2720,7 +2724,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>48</v>
@@ -2742,7 +2746,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44075</v>
       </c>
@@ -2762,7 +2766,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44105</v>
       </c>
@@ -2782,7 +2786,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44136</v>
       </c>
@@ -2802,7 +2806,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44166</v>
       </c>
@@ -2822,7 +2826,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="48" t="s">
         <v>87</v>
       </c>
@@ -2840,7 +2844,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44197</v>
       </c>
@@ -2860,7 +2864,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44228</v>
       </c>
@@ -2880,7 +2884,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44256</v>
       </c>
@@ -2900,7 +2904,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44287</v>
       </c>
@@ -2920,7 +2924,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44317</v>
       </c>
@@ -2940,7 +2944,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44378</v>
       </c>
@@ -2960,7 +2964,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44409</v>
       </c>
@@ -2984,7 +2988,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44440</v>
       </c>
@@ -3004,7 +3008,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44470</v>
       </c>
@@ -3030,7 +3034,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44501</v>
       </c>
@@ -3050,7 +3054,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44531</v>
       </c>
@@ -3074,7 +3078,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="48" t="s">
         <v>91</v>
       </c>
@@ -3092,7 +3096,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44562</v>
       </c>
@@ -3112,7 +3116,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44593</v>
       </c>
@@ -3130,7 +3134,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>44621</v>
       </c>
@@ -3152,7 +3156,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>48</v>
@@ -3176,7 +3180,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>44652</v>
       </c>
@@ -3196,7 +3200,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>44682</v>
       </c>
@@ -3216,7 +3220,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>44713</v>
       </c>
@@ -3242,7 +3246,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>44743</v>
       </c>
@@ -3268,7 +3272,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>44774</v>
       </c>
@@ -3294,7 +3298,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>44805</v>
       </c>
@@ -3320,7 +3324,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>44835</v>
       </c>
@@ -3346,7 +3350,7 @@
         <v>44861</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>46</v>
@@ -3368,7 +3372,7 @@
         <v>44841</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>44866</v>
       </c>
@@ -3388,7 +3392,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>44896</v>
       </c>
@@ -3412,7 +3416,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="48" t="s">
         <v>98</v>
       </c>
@@ -3430,7 +3434,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>44927</v>
       </c>
@@ -3456,7 +3460,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>44958</v>
       </c>
@@ -3482,7 +3486,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>44986</v>
       </c>
@@ -3506,7 +3510,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>101</v>
@@ -3526,7 +3530,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>101</v>
@@ -3546,7 +3550,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>99</v>
@@ -3568,7 +3572,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>45017</v>
       </c>
@@ -3594,20 +3598,22 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>45047</v>
       </c>
       <c r="B101" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C101" s="13"/>
+      <c r="C101" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D101" s="39"/>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
-      <c r="G101" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G101" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H101" s="39">
         <v>1</v>
@@ -3618,7 +3624,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>109</v>
@@ -3640,7 +3646,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>110</v>
@@ -3662,31 +3668,37 @@
         <v>111</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>45078</v>
       </c>
       <c r="B104" s="20"/>
-      <c r="C104" s="13"/>
+      <c r="C104" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D104" s="39"/>
       <c r="E104" s="9"/>
       <c r="F104" s="20"/>
-      <c r="G104" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G104" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H104" s="39"/>
       <c r="I104" s="9"/>
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>45108</v>
       </c>
-      <c r="B105" s="20"/>
+      <c r="B105" s="20" t="s">
+        <v>112</v>
+      </c>
       <c r="C105" s="13"/>
-      <c r="D105" s="39"/>
+      <c r="D105" s="39">
+        <v>1</v>
+      </c>
       <c r="E105" s="9"/>
       <c r="F105" s="20"/>
       <c r="G105" s="13" t="str">
@@ -3696,9 +3708,11 @@
       <c r="H105" s="39"/>
       <c r="I105" s="9"/>
       <c r="J105" s="11"/>
-      <c r="K105" s="20"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K105" s="49">
+        <v>45118</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>45139</v>
       </c>
@@ -3716,7 +3730,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>45170</v>
       </c>
@@ -3734,7 +3748,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>45200</v>
       </c>
@@ -3752,7 +3766,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>45231</v>
       </c>
@@ -3770,7 +3784,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>45261</v>
       </c>
@@ -3788,7 +3802,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>45292</v>
       </c>
@@ -3806,7 +3820,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>45323</v>
       </c>
@@ -3824,7 +3838,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3840,7 +3854,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3856,7 +3870,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3872,7 +3886,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3888,7 +3902,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3904,7 +3918,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3920,7 +3934,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3936,7 +3950,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3952,7 +3966,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3968,7 +3982,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3984,7 +3998,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -4000,7 +4014,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -4016,7 +4030,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -4032,7 +4046,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -4048,7 +4062,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4064,7 +4078,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -4080,7 +4094,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -4096,7 +4110,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -4112,7 +4126,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -4128,7 +4142,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -4144,7 +4158,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -4160,7 +4174,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -4176,7 +4190,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -4192,7 +4206,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -4208,7 +4222,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="41"/>
       <c r="B137" s="15"/>
       <c r="C137" s="42"/>
@@ -4239,10 +4253,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4265,28 +4279,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -4299,7 +4313,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4328,7 +4342,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>17.5</v>
       </c>
@@ -4352,17 +4366,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>106</v>
       </c>
@@ -4386,10 +4400,10 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>114.5</v>
+        <v>118.5</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -4417,7 +4431,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4443,7 +4457,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4469,7 +4483,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4495,7 +4509,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4521,7 +4535,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4547,7 +4561,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4573,7 +4587,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4599,7 +4613,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4619,7 +4633,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4639,7 +4653,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4659,7 +4673,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4680,7 +4694,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4701,7 +4715,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4722,7 +4736,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4743,7 +4757,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4764,7 +4778,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4785,7 +4799,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4806,7 +4820,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4827,7 +4841,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4848,7 +4862,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4869,7 +4883,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4890,7 +4904,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4911,7 +4925,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4932,7 +4946,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4953,7 +4967,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4974,7 +4988,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4995,7 +5009,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -5016,7 +5030,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -5037,7 +5051,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -5058,7 +5072,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -5079,7 +5093,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -5088,7 +5102,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -5097,7 +5111,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -5106,7 +5120,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -5115,7 +5129,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -5124,7 +5138,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -5133,7 +5147,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -5142,7 +5156,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -5151,7 +5165,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -5160,7 +5174,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -5169,7 +5183,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -5178,7 +5192,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -5187,7 +5201,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -5196,7 +5210,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -5205,7 +5219,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -5214,7 +5228,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -5223,7 +5237,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -5232,7 +5246,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -5241,7 +5255,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -5250,7 +5264,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -5259,7 +5273,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -5268,7 +5282,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5277,7 +5291,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5286,7 +5300,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5295,7 +5309,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5304,7 +5318,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5313,7 +5327,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5322,7 +5336,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5331,7 +5345,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5340,7 +5354,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
